--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -43,31 +43,31 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>cheap</t>
@@ -76,364 +76,364 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>handy</t>
+    <t>husband</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>durable</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
+    <t>fan</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>ox</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>got</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>handle</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>time</t>
+    <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>work</t>
+    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -863,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -913,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8148148148148148</v>
+        <v>0.725</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1013,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716981132075472</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8699690402476781</v>
+        <v>0.8839009287925697</v>
       </c>
       <c r="L6">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="M6">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4418604651162791</v>
+        <v>0.44</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
@@ -1090,10 +1090,10 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1113,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3939393939393939</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.855072463768116</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3846153846153846</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7808219178082192</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2555555555555555</v>
+        <v>0.2486486486486487</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2203389830508475</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7445887445887446</v>
+        <v>0.7559322033898305</v>
       </c>
       <c r="L11">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="M11">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2054054054054054</v>
+        <v>0.2135922330097087</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1331,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7220338983050848</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="M12">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1363,37 +1363,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1398963730569948</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F13">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7142857142857143</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1413,13 +1413,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7111111111111111</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,13 +1439,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6947791164658634</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L15">
-        <v>865</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>866</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>380</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1465,13 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6938775510204082</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>840</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>840</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1491,13 +1491,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1517,13 +1517,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.671875</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1543,13 +1543,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.6619718309859155</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1569,13 +1569,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6617647058823529</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1595,13 +1595,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6571428571428571</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1621,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.65625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1673,13 +1673,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6457142857142857</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L24">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1699,13 +1699,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6341463414634146</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1725,13 +1725,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.631578947368421</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1751,13 +1751,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6307692307692307</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1777,13 +1777,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6167664670658682</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L28">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1803,13 +1803,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6078431372549019</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1829,13 +1829,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5903614457831325</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1858,10 +1858,10 @@
         <v>0.5897435897435898</v>
       </c>
       <c r="L31">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1881,13 +1881,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5833333333333334</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1907,13 +1907,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5737704918032787</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1933,13 +1933,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1959,13 +1959,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5673076923076923</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L35">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1985,13 +1985,13 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5641025641025641</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2011,13 +2011,13 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5641025641025641</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2037,13 +2037,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5600000000000001</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L38">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M38">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2063,13 +2063,13 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5306122448979592</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2089,13 +2089,13 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5263157894736842</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2115,13 +2115,13 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5230769230769231</v>
+        <v>0.51</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2141,13 +2141,13 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5185185185185185</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2167,13 +2167,13 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.4782608695652174</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2193,13 +2193,13 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.4722222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2219,13 +2219,13 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.4642857142857143</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2245,13 +2245,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4586466165413534</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2271,13 +2271,13 @@
         <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4516129032258064</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2297,13 +2297,13 @@
         <v>65</v>
       </c>
       <c r="K48">
-        <v>0.446078431372549</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L48">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>226</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2323,13 +2323,13 @@
         <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4363636363636363</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2349,13 +2349,13 @@
         <v>67</v>
       </c>
       <c r="K50">
-        <v>0.4216867469879518</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L50">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M50">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>96</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2375,25 +2375,25 @@
         <v>68</v>
       </c>
       <c r="K51">
-        <v>0.4182692307692308</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L51">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2401,13 +2401,13 @@
         <v>69</v>
       </c>
       <c r="K52">
-        <v>0.4126984126984127</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2427,13 +2427,13 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>0.410958904109589</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="L53">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="M53">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>430</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2453,13 +2453,13 @@
         <v>71</v>
       </c>
       <c r="K54">
-        <v>0.4078947368421053</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2479,13 +2479,13 @@
         <v>72</v>
       </c>
       <c r="K55">
-        <v>0.4054054054054054</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L55">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2505,13 +2505,13 @@
         <v>73</v>
       </c>
       <c r="K56">
-        <v>0.4007782101167315</v>
+        <v>0.4013698630136986</v>
       </c>
       <c r="L56">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="M56">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>154</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2531,13 +2531,13 @@
         <v>74</v>
       </c>
       <c r="K57">
-        <v>0.4</v>
+        <v>0.390625</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2557,13 +2557,13 @@
         <v>75</v>
       </c>
       <c r="K58">
-        <v>0.3970588235294117</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2583,13 +2583,13 @@
         <v>76</v>
       </c>
       <c r="K59">
-        <v>0.3684210526315789</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M59">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2609,13 +2609,13 @@
         <v>77</v>
       </c>
       <c r="K60">
-        <v>0.3663366336633663</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L60">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M60">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2635,13 +2635,13 @@
         <v>78</v>
       </c>
       <c r="K61">
-        <v>0.3597122302158273</v>
+        <v>0.3642384105960265</v>
       </c>
       <c r="L61">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M61">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2661,13 +2661,13 @@
         <v>79</v>
       </c>
       <c r="K62">
-        <v>0.359375</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M62">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2687,13 +2687,13 @@
         <v>80</v>
       </c>
       <c r="K63">
-        <v>0.3513513513513514</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="M63">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2713,13 +2713,13 @@
         <v>81</v>
       </c>
       <c r="K64">
-        <v>0.3452380952380952</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L64">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2739,13 +2739,13 @@
         <v>82</v>
       </c>
       <c r="K65">
-        <v>0.34375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2765,13 +2765,13 @@
         <v>83</v>
       </c>
       <c r="K66">
-        <v>0.3425925925925926</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L66">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M66">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2791,13 +2791,13 @@
         <v>84</v>
       </c>
       <c r="K67">
-        <v>0.3229278794402584</v>
+        <v>0.317545748116254</v>
       </c>
       <c r="L67">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M67">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2817,25 +2817,25 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>0.3178807947019868</v>
+        <v>0.298804780876494</v>
       </c>
       <c r="L68">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="M68">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>103</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2843,25 +2843,25 @@
         <v>86</v>
       </c>
       <c r="K69">
-        <v>0.3125</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L69">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="M69">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>77</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2869,13 +2869,13 @@
         <v>87</v>
       </c>
       <c r="K70">
-        <v>0.3047619047619048</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2895,13 +2895,13 @@
         <v>88</v>
       </c>
       <c r="K71">
-        <v>0.2940397350993377</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L71">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>533</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2947,13 +2947,13 @@
         <v>90</v>
       </c>
       <c r="K73">
-        <v>0.2774936061381074</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="L73">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>565</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2973,13 +2973,13 @@
         <v>91</v>
       </c>
       <c r="K74">
-        <v>0.2650602409638554</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="L74">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M74">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>61</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2999,13 +2999,13 @@
         <v>92</v>
       </c>
       <c r="K75">
-        <v>0.261744966442953</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L75">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3025,25 +3025,25 @@
         <v>93</v>
       </c>
       <c r="K76">
-        <v>0.2541966426858513</v>
+        <v>0.2550335570469799</v>
       </c>
       <c r="L76">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="M76">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>311</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3051,25 +3051,25 @@
         <v>94</v>
       </c>
       <c r="K77">
-        <v>0.24</v>
+        <v>0.2518518518518518</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>76</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3077,13 +3077,13 @@
         <v>95</v>
       </c>
       <c r="K78">
-        <v>0.2391304347826087</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L78">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3103,13 +3103,13 @@
         <v>96</v>
       </c>
       <c r="K79">
-        <v>0.2382445141065831</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L79">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="M79">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>243</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3129,25 +3129,25 @@
         <v>97</v>
       </c>
       <c r="K80">
-        <v>0.2377049180327869</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L80">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M80">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3155,13 +3155,13 @@
         <v>98</v>
       </c>
       <c r="K81">
-        <v>0.2365591397849462</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M81">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3181,13 +3181,13 @@
         <v>99</v>
       </c>
       <c r="K82">
-        <v>0.2307692307692308</v>
+        <v>0.233890214797136</v>
       </c>
       <c r="L82">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="M82">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>90</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3207,13 +3207,13 @@
         <v>100</v>
       </c>
       <c r="K83">
-        <v>0.2307692307692308</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="L83">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3233,13 +3233,13 @@
         <v>101</v>
       </c>
       <c r="K84">
-        <v>0.225609756097561</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="L84">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M84">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3259,25 +3259,25 @@
         <v>102</v>
       </c>
       <c r="K85">
-        <v>0.2244897959183673</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="L85">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M85">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3285,25 +3285,25 @@
         <v>103</v>
       </c>
       <c r="K86">
-        <v>0.2232142857142857</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="L86">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M86">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>87</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3311,25 +3311,25 @@
         <v>104</v>
       </c>
       <c r="K87">
-        <v>0.221978021978022</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L87">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="M87">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N87">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O87">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>354</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3337,25 +3337,25 @@
         <v>105</v>
       </c>
       <c r="K88">
-        <v>0.2171717171717172</v>
+        <v>0.2095671981776766</v>
       </c>
       <c r="L88">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="M88">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="N88">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="O88">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3363,13 +3363,13 @@
         <v>106</v>
       </c>
       <c r="K89">
-        <v>0.2146892655367232</v>
+        <v>0.2085889570552147</v>
       </c>
       <c r="L89">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M89">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3389,13 +3389,13 @@
         <v>107</v>
       </c>
       <c r="K90">
-        <v>0.2140221402214022</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L90">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M90">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>213</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3415,13 +3415,13 @@
         <v>108</v>
       </c>
       <c r="K91">
-        <v>0.2131147540983606</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3441,13 +3441,13 @@
         <v>109</v>
       </c>
       <c r="K92">
-        <v>0.2068965517241379</v>
+        <v>0.1970260223048327</v>
       </c>
       <c r="L92">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M92">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N92">
         <v>0.98</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3467,25 +3467,25 @@
         <v>110</v>
       </c>
       <c r="K93">
-        <v>0.2063492063492063</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L93">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3493,13 +3493,13 @@
         <v>111</v>
       </c>
       <c r="K94">
-        <v>0.1974789915966386</v>
+        <v>0.194647201946472</v>
       </c>
       <c r="L94">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M94">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>191</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3519,25 +3519,25 @@
         <v>112</v>
       </c>
       <c r="K95">
-        <v>0.1948051948051948</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="L95">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M95">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3545,25 +3545,25 @@
         <v>113</v>
       </c>
       <c r="K96">
-        <v>0.1908396946564886</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="L96">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M96">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>106</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3571,25 +3571,25 @@
         <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1896551724137931</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L97">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="M97">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N97">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>329</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3597,25 +3597,25 @@
         <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1835443037974684</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L98">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M98">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N98">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O98">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3623,25 +3623,25 @@
         <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1794871794871795</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="L99">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M99">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3649,25 +3649,25 @@
         <v>117</v>
       </c>
       <c r="K100">
-        <v>0.1782945736434109</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="L100">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M100">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3675,13 +3675,13 @@
         <v>118</v>
       </c>
       <c r="K101">
-        <v>0.1693363844393593</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L101">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="M101">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="N101">
         <v>0.96</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>363</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3701,25 +3701,25 @@
         <v>119</v>
       </c>
       <c r="K102">
-        <v>0.1672862453531599</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L102">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M102">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>224</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3727,25 +3727,25 @@
         <v>120</v>
       </c>
       <c r="K103">
-        <v>0.1612903225806452</v>
+        <v>0.1497975708502024</v>
       </c>
       <c r="L103">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M103">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3753,25 +3753,25 @@
         <v>121</v>
       </c>
       <c r="K104">
-        <v>0.1595092024539877</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M104">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3779,25 +3779,25 @@
         <v>122</v>
       </c>
       <c r="K105">
-        <v>0.1486486486486487</v>
+        <v>0.1452054794520548</v>
       </c>
       <c r="L105">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M105">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>126</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3805,25 +3805,25 @@
         <v>123</v>
       </c>
       <c r="K106">
-        <v>0.1424657534246575</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="L106">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M106">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N106">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O106">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>313</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3831,13 +3831,13 @@
         <v>124</v>
       </c>
       <c r="K107">
-        <v>0.1360225140712946</v>
+        <v>0.1378986866791745</v>
       </c>
       <c r="L107">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M107">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N107">
         <v>0.96</v>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3857,25 +3857,25 @@
         <v>125</v>
       </c>
       <c r="K108">
-        <v>0.134393063583815</v>
+        <v>0.1325648414985591</v>
       </c>
       <c r="L108">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M108">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N108">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O108">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3883,13 +3883,13 @@
         <v>126</v>
       </c>
       <c r="K109">
-        <v>0.1333333333333333</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="L109">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M109">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3909,25 +3909,25 @@
         <v>127</v>
       </c>
       <c r="K110">
-        <v>0.1317073170731707</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L110">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M110">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N110">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O110">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>178</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3935,25 +3935,25 @@
         <v>128</v>
       </c>
       <c r="K111">
-        <v>0.1297297297297297</v>
+        <v>0.1053555750658472</v>
       </c>
       <c r="L111">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="M111">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>161</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3961,25 +3961,25 @@
         <v>129</v>
       </c>
       <c r="K112">
-        <v>0.1143410852713178</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="L112">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M112">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N112">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O112">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>457</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3987,25 +3987,25 @@
         <v>130</v>
       </c>
       <c r="K113">
-        <v>0.1107011070110701</v>
+        <v>0.09845559845559845</v>
       </c>
       <c r="L113">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M113">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N113">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O113">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>241</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -4013,25 +4013,25 @@
         <v>131</v>
       </c>
       <c r="K114">
-        <v>0.1092436974789916</v>
+        <v>0.09796672828096119</v>
       </c>
       <c r="L114">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M114">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N114">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O114">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>212</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -4039,25 +4039,25 @@
         <v>132</v>
       </c>
       <c r="K115">
-        <v>0.1033274956217163</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L115">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M115">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N115">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="O115">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>1024</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4065,25 +4065,25 @@
         <v>133</v>
       </c>
       <c r="K116">
-        <v>0.1007751937984496</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L116">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M116">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N116">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="O116">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4091,25 +4091,25 @@
         <v>134</v>
       </c>
       <c r="K117">
-        <v>0.1</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="L117">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M117">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N117">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O117">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>486</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4117,25 +4117,25 @@
         <v>135</v>
       </c>
       <c r="K118">
-        <v>0.09418282548476455</v>
+        <v>0.08011869436201781</v>
       </c>
       <c r="L118">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M118">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N118">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="O118">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4143,25 +4143,25 @@
         <v>136</v>
       </c>
       <c r="K119">
-        <v>0.07766990291262135</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="L119">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M119">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N119">
-        <v>0.9399999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O119">
-        <v>0.06000000000000005</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>380</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4169,25 +4169,25 @@
         <v>137</v>
       </c>
       <c r="K120">
-        <v>0.07669616519174041</v>
+        <v>0.06303724928366762</v>
       </c>
       <c r="L120">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M120">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N120">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="O120">
-        <v>0.1899999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4195,25 +4195,25 @@
         <v>138</v>
       </c>
       <c r="K121">
-        <v>0.06702412868632708</v>
+        <v>0.04405874499332443</v>
       </c>
       <c r="L121">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M121">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N121">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="O121">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>696</v>
+        <v>716</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4221,25 +4221,25 @@
         <v>139</v>
       </c>
       <c r="K122">
-        <v>0.06232294617563739</v>
+        <v>0.03851444291609354</v>
       </c>
       <c r="L122">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M122">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N122">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="O122">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>331</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
